--- a/dataanalysis/202504-1.xlsx
+++ b/dataanalysis/202504-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="11520"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,13 +308,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -794,148 +787,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1298,9 +1291,9 @@
   <dimension ref="A1:L95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1384,7 +1377,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>45757</v>
       </c>
       <c r="B3" t="s">
@@ -1419,7 +1412,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>45748</v>
       </c>
       <c r="B4" t="s">
@@ -1454,7 +1447,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>45768</v>
       </c>
       <c r="B5" t="s">
@@ -1463,7 +1456,7 @@
       <c r="C5">
         <v>15.83</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>117532776</v>
       </c>
       <c r="E5">
@@ -1489,7 +1482,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>45764</v>
       </c>
       <c r="B6" t="s">
@@ -1524,7 +1517,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>45757</v>
       </c>
       <c r="B7" t="s">
@@ -1559,7 +1552,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>45749</v>
       </c>
       <c r="B8" t="s">
@@ -1594,7 +1587,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>45761</v>
       </c>
       <c r="B9" t="s">
@@ -1629,7 +1622,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>45758</v>
       </c>
       <c r="B10" t="s">
